--- a/Chain_Tof/M5Stack-Unit-Key-Encoder-通讯协议-V1.0-20240704.xlsx
+++ b/Chain_Tof/M5Stack-Unit-Key-Encoder-通讯协议-V1.0-20240704.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10455"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1611,11 +1611,11 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:M25"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.2833333333333" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.65" customWidth="1"/>
     <col min="2" max="2" width="4.425" customWidth="1"/>
@@ -2218,7 +2218,7 @@
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" customFormat="1" ht="57" customHeight="1" spans="1:13">
+    <row r="22" customFormat="1" ht="68" customHeight="1" spans="1:13">
       <c r="A22" s="21"/>
       <c r="B22" s="15" t="s">
         <v>29</v>
